--- a/src/main/resources/test_data.xlsx
+++ b/src/main/resources/test_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -42,64 +42,52 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Run</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>category check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.tmsandbox.co.nz</t>
+  </si>
+  <si>
+    <t>/v1/Categories/6327/Details.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VerifyField</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Body</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accept</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Run</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>category check</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://api.tmsandbox.co.nz</t>
-  </si>
-  <si>
-    <t>/v1/Categories/6327/Details.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>application.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContentType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VerifyField</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$.Name="Carbon credits";
+    <t>$.Name=Carbon credits;
 $.CanRelist=true;
-$.Promotions[?(@.Name=='Gallery')].Description~="2x larger image"</t>
+$.Promotions[?(@.Name=='Gallery')].Description~=2x larger image</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -442,32 +430,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="9" max="9" width="60.6640625" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" customWidth="1"/>
     <col min="11" max="11" width="4.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -479,55 +467,49 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2">
+        <v>200</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>200</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
